--- a/A_ACME_고객정보_추출/Result/ACME 고객정보 리스트.xlsx
+++ b/A_ACME_고객정보_추출/Result/ACME 고객정보 리스트.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\00_과제\실습과제_1121_제출1129_24\A_ACME 고객정보 추출\Result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\00_과제\실습과제_1121_제출1129_24\A_ACME_고객정보_추출\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8AE21F-DA1A-4B5C-BC93-3D1E957CA11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B854138-6ACA-4BDC-BC64-650B39A38B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="3765" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6360" yWindow="-17010" windowWidth="16995" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/A_ACME_고객정보_추출/Result/ACME 고객정보 리스트.xlsx
+++ b/A_ACME_고객정보_추출/Result/ACME 고객정보 리스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\00_과제\실습과제_1121_제출1129_24\A_ACME_고객정보_추출\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B854138-6ACA-4BDC-BC64-650B39A38B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AFCC47-DAC3-4DDD-A5D2-974BCF9A4939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6360" yWindow="-17010" windowWidth="16995" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3105" yWindow="1290" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/A_ACME_고객정보_추출/Result/ACME 고객정보 리스트.xlsx
+++ b/A_ACME_고객정보_추출/Result/ACME 고객정보 리스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\00_과제\실습과제_1121_제출1129_24\A_ACME_고객정보_추출\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AFCC47-DAC3-4DDD-A5D2-974BCF9A4939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAB820E-A34B-420E-8232-D50E820735CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="1290" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11280" yWindow="-16410" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/A_ACME_고객정보_추출/Result/ACME 고객정보 리스트.xlsx
+++ b/A_ACME_고객정보_추출/Result/ACME 고객정보 리스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\00_과제\실습과제_1121_제출1129_24\A_ACME_고객정보_추출\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAB820E-A34B-420E-8232-D50E820735CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5682AC-F99B-468D-BC18-2A356A0466BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11280" yWindow="-16410" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/A_ACME_고객정보_추출/Result/ACME 고객정보 리스트.xlsx
+++ b/A_ACME_고객정보_추출/Result/ACME 고객정보 리스트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\00_과제\실습과제_1121_제출1129_24\A_ACME_고객정보_추출\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5682AC-F99B-468D-BC18-2A356A0466BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6C0E5A-F242-4DD2-8228-68AC73AD3EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
